--- a/Code/Results/Cases/Case_0_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_130/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2600652451331555</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.596429258210947</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.04461083883601447</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>48.49846382549708</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.003588110144282197</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.405978312332252</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02044049295378159</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.2632971598155365</v>
+      </c>
+      <c r="D3">
+        <v>1.572081222310828</v>
+      </c>
+      <c r="E3">
+        <v>0.04487315879379494</v>
+      </c>
+      <c r="F3">
+        <v>48.42316842204497</v>
+      </c>
+      <c r="G3">
+        <v>0.003632565078529305</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.412608370765682</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.01853400970347252</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2.562605684679681</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.2654372648408838</v>
+      </c>
+      <c r="D4">
+        <v>1.558959283597119</v>
+      </c>
+      <c r="E4">
+        <v>0.04504287516387251</v>
+      </c>
+      <c r="F4">
+        <v>48.42257705315075</v>
+      </c>
+      <c r="G4">
+        <v>0.00366093305892609</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.417845522065463</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.01737145917370952</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>2.371325805375818</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2663484599024954</v>
+      </c>
+      <c r="D5">
+        <v>1.554054194741354</v>
+      </c>
+      <c r="E5">
+        <v>0.04511422667244691</v>
+      </c>
+      <c r="F5">
+        <v>48.4335236111267</v>
+      </c>
+      <c r="G5">
+        <v>0.003672768281762323</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.420267790365202</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.0168991690539535</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2.29330306860561</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.2665021220804888</v>
+      </c>
+      <c r="D6">
+        <v>1.553265930359771</v>
+      </c>
+      <c r="E6">
+        <v>0.04512620729074612</v>
+      </c>
+      <c r="F6">
+        <v>48.4360089230338</v>
+      </c>
+      <c r="G6">
+        <v>0.003674750275246998</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.420687261883572</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.01682081798345436</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>2.280343261403573</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.2654493953598518</v>
+      </c>
+      <c r="D7">
+        <v>1.558891363504017</v>
+      </c>
+      <c r="E7">
+        <v>0.04504382854540001</v>
+      </c>
+      <c r="F7">
+        <v>48.42267975089356</v>
+      </c>
+      <c r="G7">
+        <v>0.003661091552305878</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.417877029723357</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.01736508451497443</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2.370273851392369</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.2611472507768582</v>
+      </c>
+      <c r="D8">
+        <v>1.58764380000963</v>
+      </c>
+      <c r="E8">
+        <v>0.04469950069969419</v>
+      </c>
+      <c r="F8">
+        <v>48.46284847761501</v>
+      </c>
+      <c r="G8">
+        <v>0.003603218935751593</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.408019050438526</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0.01978111859239107</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2.766433886209825</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2539498419102273</v>
+      </c>
+      <c r="D9">
+        <v>1.659388242266232</v>
+      </c>
+      <c r="E9">
+        <v>0.04409219150416988</v>
+      </c>
+      <c r="F9">
+        <v>48.91803242882065</v>
+      </c>
+      <c r="G9">
+        <v>0.003497981520959178</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.398198355533737</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0.02461028276374577</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3.540180268007646</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.249423665687118</v>
+      </c>
+      <c r="D10">
+        <v>1.7227775821097</v>
+      </c>
+      <c r="E10">
+        <v>0.043686350905908</v>
+      </c>
+      <c r="F10">
+        <v>49.5038705119614</v>
+      </c>
+      <c r="G10">
+        <v>0.003425304560945364</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.397177726304903</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.02825592367371854</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>4.10623028343673</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2475318317989377</v>
+      </c>
+      <c r="D11">
+        <v>1.754262201406732</v>
+      </c>
+      <c r="E11">
+        <v>0.04351024065831055</v>
+      </c>
+      <c r="F11">
+        <v>49.83048061633701</v>
+      </c>
+      <c r="G11">
+        <v>0.00339315520110176</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.398158607471487</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.02994603678804708</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>4.363110593465422</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2468396708692495</v>
+      </c>
+      <c r="D12">
+        <v>1.766596122501255</v>
+      </c>
+      <c r="E12">
+        <v>0.04344475472847886</v>
+      </c>
+      <c r="F12">
+        <v>49.96331895322737</v>
+      </c>
+      <c r="G12">
+        <v>0.003381103600551303</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.39874728752801</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.03059156162468213</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>4.460285735713398</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2469876586951898</v>
+      </c>
+      <c r="D13">
+        <v>1.763920974201937</v>
+      </c>
+      <c r="E13">
+        <v>0.04345880512026756</v>
+      </c>
+      <c r="F13">
+        <v>49.93429372922583</v>
+      </c>
+      <c r="G13">
+        <v>0.00338369381621489</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.398610681349822</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.03045227465437961</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>4.439361943450422</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2474744003252738</v>
+      </c>
+      <c r="D14">
+        <v>1.755268489259947</v>
+      </c>
+      <c r="E14">
+        <v>0.04350482909889308</v>
+      </c>
+      <c r="F14">
+        <v>49.8412226144635</v>
+      </c>
+      <c r="G14">
+        <v>0.003392161301662651</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.398202626905032</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.02999902811684763</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>4.371107314139238</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2477757062874133</v>
+      </c>
+      <c r="D15">
+        <v>1.750023128123189</v>
+      </c>
+      <c r="E15">
+        <v>0.0435331761805724</v>
+      </c>
+      <c r="F15">
+        <v>49.78542276348799</v>
+      </c>
+      <c r="G15">
+        <v>0.003397363591662535</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.397981270878176</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0.02972214996986366</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4.329286057410116</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.2495506812817183</v>
+      </c>
+      <c r="D16">
+        <v>1.720775819109008</v>
+      </c>
+      <c r="E16">
+        <v>0.04369802963116864</v>
+      </c>
+      <c r="F16">
+        <v>49.48377805654764</v>
+      </c>
+      <c r="G16">
+        <v>0.003427423239045295</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.397143486281891</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0.02814618824069726</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4.089429168003846</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.2506825137276252</v>
+      </c>
+      <c r="D17">
+        <v>1.7035326072874</v>
+      </c>
+      <c r="E17">
+        <v>0.04380132707862128</v>
+      </c>
+      <c r="F17">
+        <v>49.31447322987492</v>
+      </c>
+      <c r="G17">
+        <v>0.003446091612892059</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.397006061705667</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.02718815554459297</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3.94211849063862</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.2513492326667119</v>
+      </c>
+      <c r="D18">
+        <v>1.693862047403968</v>
+      </c>
+      <c r="E18">
+        <v>0.04386154320327229</v>
+      </c>
+      <c r="F18">
+        <v>49.22271744448994</v>
+      </c>
+      <c r="G18">
+        <v>0.003456915533554236</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.397062422171246</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.02664004067891312</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3.857331695637072</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.2515776663836959</v>
+      </c>
+      <c r="D19">
+        <v>1.690629354127623</v>
+      </c>
+      <c r="E19">
+        <v>0.04388206972058661</v>
+      </c>
+      <c r="F19">
+        <v>49.19260162948126</v>
+      </c>
+      <c r="G19">
+        <v>0.003460595406117341</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.397104489965216</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.02645493232712681</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3.828614786363971</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.2505604000457282</v>
+      </c>
+      <c r="D20">
+        <v>1.705342373235226</v>
+      </c>
+      <c r="E20">
+        <v>0.04379024801129816</v>
+      </c>
+      <c r="F20">
+        <v>49.33191041680607</v>
+      </c>
+      <c r="G20">
+        <v>0.003444095451545251</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.397006612052053</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0.02728983090086956</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3.95780600327754</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.2473307730103187</v>
+      </c>
+      <c r="D21">
+        <v>1.757798509441784</v>
+      </c>
+      <c r="E21">
+        <v>0.04349127825448029</v>
+      </c>
+      <c r="F21">
+        <v>49.86830692566639</v>
+      </c>
+      <c r="G21">
+        <v>0.003389670938485523</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.398316506104749</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0.03013199978312286</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>4.391158149571083</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2453614048686887</v>
+      </c>
+      <c r="D22">
+        <v>1.794496079790974</v>
+      </c>
+      <c r="E22">
+        <v>0.04330288700524321</v>
+      </c>
+      <c r="F22">
+        <v>50.27253471915242</v>
+      </c>
+      <c r="G22">
+        <v>0.003354811844429209</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.400444013094159</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0.03202219031319231</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>4.67379181795809</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.2463994827559901</v>
+      </c>
+      <c r="D23">
+        <v>1.774678005097201</v>
+      </c>
+      <c r="E23">
+        <v>0.04340280127013152</v>
+      </c>
+      <c r="F23">
+        <v>50.05169559934598</v>
+      </c>
+      <c r="G23">
+        <v>0.003373354793086543</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.399188789274262</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0.03101002745411563</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4.523002190001307</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.2506155577793692</v>
+      </c>
+      <c r="D24">
+        <v>1.70452342407134</v>
+      </c>
+      <c r="E24">
+        <v>0.04379525427372144</v>
+      </c>
+      <c r="F24">
+        <v>49.32400972291498</v>
+      </c>
+      <c r="G24">
+        <v>0.003444997631236743</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.397005942300211</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.02724385522500228</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>3.950713976768498</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.2557636953722096</v>
+      </c>
+      <c r="D25">
+        <v>1.638206754058388</v>
+      </c>
+      <c r="E25">
+        <v>0.04424931974949065</v>
+      </c>
+      <c r="F25">
+        <v>48.7524583391147</v>
+      </c>
+      <c r="G25">
+        <v>0.003525606115899831</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.399798386688445</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.02328998065078025</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>3.331249627311138</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
